--- a/NMR/NMR.xlsx
+++ b/NMR/NMR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\Documents\GitHub\F-Praktikum-\NMR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{117A3FE1-F0FE-48E0-AE73-76AAEB6554B9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D63833-A36E-45DC-AF76-BE8B9691A3DA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{222999FB-D064-4792-A168-AAE20CF5F284}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>NMR</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>Fehler</t>
+  </si>
+  <si>
+    <t>Sigma</t>
+  </si>
+  <si>
+    <t>Mittelwert g</t>
+  </si>
+  <si>
+    <t>Mittelwert gamma</t>
   </si>
 </sst>
 </file>
@@ -142,13 +151,13 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -463,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1782F64D-4C4F-4B42-AA0B-081F50BB232C}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,18 +489,18 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -718,27 +727,27 @@
         <v>10</v>
       </c>
       <c r="B16">
-        <f>AVERAGE(B5:B14)</f>
+        <f t="shared" ref="B16:G16" si="0">AVERAGE(B5:B14)</f>
         <v>32411.9</v>
       </c>
       <c r="C16">
-        <f>AVERAGE(C5:C14)</f>
+        <f t="shared" si="0"/>
         <v>31647</v>
       </c>
       <c r="D16">
-        <f>AVERAGE(D5:D14)</f>
+        <f t="shared" si="0"/>
         <v>32409</v>
       </c>
       <c r="E16">
-        <f>AVERAGE(E5:E14)</f>
+        <f t="shared" si="0"/>
         <v>31645.5</v>
       </c>
       <c r="F16">
-        <f>AVERAGE(F5:F14)</f>
+        <f t="shared" si="0"/>
         <v>30477.3</v>
       </c>
       <c r="G16">
-        <f>AVERAGE(G5:G14)</f>
+        <f t="shared" si="0"/>
         <v>29784.5</v>
       </c>
     </row>
@@ -747,15 +756,35 @@
         <v>11</v>
       </c>
       <c r="B17">
-        <f>_xlfn.STDEV.S(B5:B14)</f>
-        <v>2.4244128727957572</v>
+        <f>_xlfn.STDEV.P(B5:B14)</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:G17" si="1">_xlfn.STDEV.P(C5:C14)</f>
+        <v>1.6733200530681511</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>2.6832815729997477</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>2.0124611797498106</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>4.4283179650969062</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>5.8352377843580632</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>5.5860000000000003</v>
       </c>
       <c r="D18">
@@ -776,10 +805,10 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <f>26.75 *10^7</f>
         <v>267500000</v>
       </c>
@@ -813,6 +842,82 @@
       <c r="C22">
         <f>C16*10^3*2*PI()/$C$19</f>
         <v>0.74334192678995281</v>
+      </c>
+      <c r="E22">
+        <f>AVERAGE(D18:E18)</f>
+        <v>5.5856177188268124</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22">
+        <f>AVERAGE(F18:G18)</f>
+        <v>5.2549169588863336</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23">
+        <f>B17*10^3*2*PI()/$C$19</f>
+        <v>5.4023649370142234E-5</v>
+      </c>
+      <c r="C23">
+        <f>C17*10^3*2*PI()/$C$19</f>
+        <v>3.9303850361296345E-5</v>
+      </c>
+      <c r="E23">
+        <f>AVERAGE(D19:E19)</f>
+        <v>267481693.48123381</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23">
+        <f>AVERAGE(F19:G19)</f>
+        <v>251645235.67885679</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <f>SQRT(((B5-B16)^2+(B6-B16)^2+(B7-B16)^2+(B8-B16)^2+(B9-B16)^2+(B10-B16)^2+(B11-B16)^2+(B12-B16)^2+(B13-B16)^2+(B14-B16)^2)/10)</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="F25">
+        <f>AVERAGE(D25:D29)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>7</v>
+      </c>
+      <c r="F26">
+        <f>_xlfn.STDEV.P(D25:D29)</f>
+        <v>1.4142135623730951</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>8</v>
+      </c>
+      <c r="F27">
+        <f>SQRT(4+1+1+4)</f>
+        <v>3.1622776601683795</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
